--- a/xlsform/sarrive.xlsx
+++ b/xlsform/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -45,103 +45,106 @@
     <t>select_one rider</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Rider Name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>quick search('riders')</t>
+  </si>
+  <si>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>quick search('regions')</t>
+  </si>
+  <si>
+    <t>select_one facility</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>quick search('facilities', 'matches', 'region', ${region})</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>srepeat</t>
+  </si>
+  <si>
+    <t>New Sample</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>stid</t>
+  </si>
+  <si>
+    <t>ST Barcode</t>
+  </si>
+  <si>
+    <t>select_one stype</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>Specimen Type</t>
+  </si>
+  <si>
+    <t>quick search('stypes')</t>
+  </si>
+  <si>
+    <t>select_one condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Specimen Condition</t>
+  </si>
+  <si>
+    <t>quick search('conditions')</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>store_gps</t>
+  </si>
+  <si>
+    <t>GPS Coordinates</t>
+  </si>
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
+    <t>region_key</t>
+  </si>
+  <si>
+    <t>facility_key</t>
+  </si>
+  <si>
     <t>rider</t>
-  </si>
-  <si>
-    <t>Rider Name</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>quick search('riders')</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>quick search('regions')</t>
-  </si>
-  <si>
-    <t>select_one facility</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>Facility</t>
-  </si>
-  <si>
-    <t>quick search('facilities', 'matches', 'region', ${region})</t>
-  </si>
-  <si>
-    <t>begin repeat</t>
-  </si>
-  <si>
-    <t>stid_repeat</t>
-  </si>
-  <si>
-    <t>New Sample</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>stid</t>
-  </si>
-  <si>
-    <t>STT Barcode</t>
-  </si>
-  <si>
-    <t>select_one stype</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>Specimen Type</t>
-  </si>
-  <si>
-    <t>quick search('stypes')</t>
-  </si>
-  <si>
-    <t>select_one condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>Specimen Condition</t>
-  </si>
-  <si>
-    <t>quick search('conditions')</t>
-  </si>
-  <si>
-    <t>end repeat</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>store_gps</t>
-  </si>
-  <si>
-    <t>GPS Coordinates</t>
-  </si>
-  <si>
-    <t>list name</t>
-  </si>
-  <si>
-    <t>region_key</t>
-  </si>
-  <si>
-    <t>facility_key</t>
   </si>
   <si>
     <t>rider_key</t>
@@ -395,7 +398,7 @@
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -541,13 +544,13 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -555,7 +558,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>29</v>
@@ -566,10 +569,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -591,18 +594,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
